--- a/biology/Médecine/Maria_Pilar_Bruguera_Sábat/Maria_Pilar_Bruguera_Sábat.xlsx
+++ b/biology/Médecine/Maria_Pilar_Bruguera_Sábat/Maria_Pilar_Bruguera_Sábat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria_Pilar_Bruguera_S%C3%A1bat</t>
+          <t>Maria_Pilar_Bruguera_Sábat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria Pilar Bruguera Sábat, née à Gérone en 1906 et morte en 1994 à Vic, est une religieuse et doctoresse espagnole.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria_Pilar_Bruguera_S%C3%A1bat</t>
+          <t>Maria_Pilar_Bruguera_Sábat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de Gérone[1], sœur de la religieuse Carme Bruguera Sala[2], elle exerce sa profession au couvent des Carmélites de Terrassa[3]. 
-Elle est diplômée de la Faculté de Médecine de l'Université de Barcelone, en 1934, sous la République espagnole, mais elle poursuit sa carrière religieuse[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Gérone, sœur de la religieuse Carme Bruguera Sala, elle exerce sa profession au couvent des Carmélites de Terrassa. 
+Elle est diplômée de la Faculté de Médecine de l'Université de Barcelone, en 1934, sous la République espagnole, mais elle poursuit sa carrière religieuse.
 Elle décède à Vic en 1994, à l'âge de 85 ans.
 </t>
         </is>
